--- a/biology/Botanique/Onopordum_acaulon/Onopordum_acaulon.xlsx
+++ b/biology/Botanique/Onopordum_acaulon/Onopordum_acaulon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Onopordon à tige courte, Onopordon sans tige
-Onopordum acaulon L., l'Onopordon à tige courte ou Onopordon sans tige[2],[3], est une espèce de plantes dicotylédones de la famille des Astéracées. Il s'agit d'un chardon dont la floraison a lieu au creux de la rosette de feuilles, contrairement aux autres espèces du même genre qui développent de hautes tiges.
+Onopordum acaulon L., l'Onopordon à tige courte ou Onopordon sans tige est une espèce de plantes dicotylédones de la famille des Astéracées. Il s'agit d'un chardon dont la floraison a lieu au creux de la rosette de feuilles, contrairement aux autres espèces du même genre qui développent de hautes tiges.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Onopordum pyrenaicum DC., 1813
 </t>
@@ -544,6 +558,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -569,11 +585,48 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Cette espèce a été décrite en 1763 par le naturaliste suédois Carl von Linné (1707-1778)[1].
-Liste des sous-espèces
-Selon Catalogue of Life                                   (15 juin 2015)[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite en 1763 par le naturaliste suédois Carl von Linné (1707-1778).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Onopordum_acaulon</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Onopordum_acaulon</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (15 juin 2015) :
 sous-espèce Onopordum acaulon subsp. acaulon</t>
         </is>
       </c>
